--- a/Documentación/TercerHito/MapaDeActividadesEditado.xlsx
+++ b/Documentación/TercerHito/MapaDeActividadesEditado.xlsx
@@ -597,6 +597,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -604,15 +613,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -921,24 +921,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection sqref="A1:L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="38" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="6.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="6.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="5.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6" style="2" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" style="2" customWidth="1"/>
     <col min="13" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
@@ -952,17 +952,17 @@
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="35"/>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="36" t="s">
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="37"/>
-      <c r="L1" s="38"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="41"/>
     </row>
     <row r="2" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
